--- a/data/trans_camb/P16-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 12,6</t>
+          <t>0,78; 14,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,4; 17,78</t>
+          <t>3,64; 17,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,55; 19,23</t>
+          <t>6,28; 20,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 14,94</t>
+          <t>-1,34; 14,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 9,77</t>
+          <t>-7,05; 9,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 11,38</t>
+          <t>-2,06; 12,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 12,49</t>
+          <t>1,39; 12,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 12,3</t>
+          <t>1,96; 12,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,39; 14,79</t>
+          <t>5,36; 14,32</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 32,66</t>
+          <t>1,68; 38,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,69; 45,13</t>
+          <t>7,77; 44,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,75; 50,67</t>
+          <t>13,69; 52,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 29,78</t>
+          <t>-2,19; 29,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 19,7</t>
+          <t>-12,33; 18,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 22,86</t>
+          <t>-3,5; 24,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 28,27</t>
+          <t>2,94; 27,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 28,15</t>
+          <t>3,94; 28,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,85; 33,91</t>
+          <t>10,63; 32,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 17,78</t>
+          <t>2,31; 17,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 17,19</t>
+          <t>2,51; 17,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 21,89</t>
+          <t>7,13; 21,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 18,18</t>
+          <t>2,38; 17,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 10,7</t>
+          <t>-4,59; 10,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 11,81</t>
+          <t>-1,51; 12,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 15,49</t>
+          <t>3,8; 14,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 11,92</t>
+          <t>1,24; 11,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 14,86</t>
+          <t>4,62; 14,7</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,21; 48,83</t>
+          <t>5,33; 48,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 47,86</t>
+          <t>5,89; 47,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,08; 61,72</t>
+          <t>16,01; 61,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 36,69</t>
+          <t>4,07; 36,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 21,61</t>
+          <t>-8,01; 20,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 23,93</t>
+          <t>-2,89; 23,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,87; 35,73</t>
+          <t>7,53; 32,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 27,7</t>
+          <t>2,43; 26,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,63; 34,58</t>
+          <t>9,37; 33,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,3; 20,73</t>
+          <t>9,1; 20,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,04; 21,03</t>
+          <t>9,18; 20,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 18,85</t>
+          <t>-29,25; 18,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 23,46</t>
+          <t>2,53; 22,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 26,88</t>
+          <t>5,34; 25,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,04; 29,29</t>
+          <t>9,37; 29,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,63; 19,86</t>
+          <t>9,91; 20,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,44; 20,4</t>
+          <t>10,17; 21,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 20,05</t>
+          <t>-26,49; 19,88</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,19; 54,91</t>
+          <t>20,76; 54,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,17; 55,26</t>
+          <t>21,48; 56,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-62,66; 47,13</t>
+          <t>-66,69; 47,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,18; 50,29</t>
+          <t>5,21; 48,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,31; 56,39</t>
+          <t>8,84; 52,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,27; 61,84</t>
+          <t>15,71; 60,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,66; 48,66</t>
+          <t>21,12; 49,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,91; 49,89</t>
+          <t>22,07; 51,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-57,71; 46,48</t>
+          <t>-57,3; 45,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,42; 11,73</t>
+          <t>3,43; 11,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,46; 10,8</t>
+          <t>2,62; 10,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,57; 14,85</t>
+          <t>5,11; 13,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,03; 18,55</t>
+          <t>8,58; 19,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 9,29</t>
+          <t>-0,76; 9,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,2; 31,75</t>
+          <t>7,14; 31,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,07; 13,48</t>
+          <t>6,72; 13,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,55</t>
+          <t>2,82; 9,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,27; 26,66</t>
+          <t>8,87; 24,97</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,18; 27,41</t>
+          <t>7,22; 27,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,2; 25,31</t>
+          <t>5,77; 25,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,94; 34,11</t>
+          <t>11,11; 32,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,39; 36,29</t>
+          <t>15,12; 37,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 18,33</t>
+          <t>-1,05; 18,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,08; 62,05</t>
+          <t>12,76; 61,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,17; 28,88</t>
+          <t>13,49; 28,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,07; 20,63</t>
+          <t>5,61; 20,04</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,85; 55,73</t>
+          <t>18,19; 53,34</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,18; 16,3</t>
+          <t>2,94; 16,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,47; 15,85</t>
+          <t>2,59; 16,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,93; 21,21</t>
+          <t>7,29; 21,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,54; 19,57</t>
+          <t>8,62; 20,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,15; 15,7</t>
+          <t>5,03; 16,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,57; 17,25</t>
+          <t>1,13; 17,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,97; 16,06</t>
+          <t>7,62; 16,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,8; 12,77</t>
+          <t>4,55; 13,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,03; 18,04</t>
+          <t>5,77; 17,9</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7,13; 45,68</t>
+          <t>6,57; 45,48</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>5,55; 43,96</t>
+          <t>5,39; 43,32</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>15,41; 57,35</t>
+          <t>16,76; 58,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>13,09; 33,62</t>
+          <t>13,19; 34,83</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>8,04; 27,06</t>
+          <t>7,82; 27,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,43; 28,77</t>
+          <t>1,68; 29,4</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>14,06; 31,37</t>
+          <t>13,46; 31,48</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>8,55; 25,34</t>
+          <t>8,1; 25,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>10,77; 34,82</t>
+          <t>10,52; 35,2</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,86; 18,47</t>
+          <t>4,63; 18,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 12,63</t>
+          <t>-0,69; 12,97</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 19,84</t>
+          <t>-2,03; 19,78</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,53; 13,76</t>
+          <t>6,6; 14,02</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,45; 10,29</t>
+          <t>3,13; 10,85</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 4,1</t>
+          <t>-4,7; 4,06</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,01; 14,17</t>
+          <t>6,81; 14,07</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,28; 9,36</t>
+          <t>1,77; 9,59</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 4,26</t>
+          <t>-4,86; 3,73</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>22,54; 115,59</t>
+          <t>20,84; 121,99</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 79,67</t>
+          <t>-3,13; 85,94</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 125,76</t>
+          <t>-12,75; 110,76</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>10,05; 22,46</t>
+          <t>9,93; 22,59</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>3,76; 16,94</t>
+          <t>4,84; 17,62</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 6,69</t>
+          <t>-7,16; 6,72</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>12,37; 26,88</t>
+          <t>11,91; 26,26</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4,02; 17,6</t>
+          <t>3,02; 18,01</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 8,07</t>
+          <t>-8,77; 7,08</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>7,37; 12,23</t>
+          <t>7,56; 12,39</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,96; 11,84</t>
+          <t>6,82; 11,81</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 13,72</t>
+          <t>-1,95; 13,67</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>9,34; 14,0</t>
+          <t>9,17; 13,82</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,62</t>
+          <t>3,77; 8,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,17; 14,05</t>
+          <t>4,28; 13,95</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,06; 12,51</t>
+          <t>9,08; 12,6</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,77</t>
+          <t>6,06; 9,6</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,53; 12,04</t>
+          <t>1,89; 12,23</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>17,48; 31,28</t>
+          <t>18,12; 32,08</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>16,83; 30,21</t>
+          <t>16,54; 30,33</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 34,51</t>
+          <t>-3,83; 34,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>15,69; 24,47</t>
+          <t>15,19; 24,12</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>6,62; 15,08</t>
+          <t>6,27; 14,58</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>7,1; 23,9</t>
+          <t>7,13; 23,93</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,0; 25,64</t>
+          <t>18,0; 25,81</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>11,91; 19,97</t>
+          <t>11,95; 19,65</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>3,1; 24,31</t>
+          <t>3,77; 24,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
